--- a/data/trans_bre/P32-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P32-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,84%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,45; 2,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,54; -1,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,35; -1,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,14; -2,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 181,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -30,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 31,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -32,71</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,91</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,87%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 0,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,73; -2,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 0,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,55; -0,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,2; 30,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,62; -42,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,02; 14,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,69; -17,41</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,92%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-4,25; 0,14</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-7,33; 0,45</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 1,36</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 1,38</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,95; 41,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,15; 49,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,39; 39,98</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,2%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; -0,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; -3,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,48; -0,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,26; -1,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,69; 0,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,58; -49,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,5; -8,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,12; -26,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,3</t>
+          <t>-6,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-83,84%</t>
+          <t>-83,72%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,14; -2,84</t>
+          <t>-10,89; -2,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -32,71</t>
+          <t>-100,0; -30,21</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-56,87%</t>
+          <t>-64,49%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,55; -0,96</t>
+          <t>-6,25; -1,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-79,69; -17,41</t>
+          <t>-89,18; -31,67</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-38,92%</t>
+          <t>-41,95%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 1,38</t>
+          <t>-6,23; 1,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-75,39; 39,98</t>
+          <t>-75,72; 33,16</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-55,2%</t>
+          <t>-61,43%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,26; -1,64</t>
+          <t>-5,96; -2,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-74,12; -26,55</t>
+          <t>-81,69; -39,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 2,92</t>
+          <t>-3,25; 3,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,54; -1,97</t>
+          <t>-7,43; -2,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,35; -1,33</t>
+          <t>-7,47; -1,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,89; -2,94</t>
+          <t>-11,18; -3,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 181,73</t>
+          <t>-100,0; 200,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -30,05</t>
+          <t>-94,37; -31,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 31,69</t>
+          <t>-100,0; 12,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -30,21</t>
+          <t>-100,0; -38,09</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 0,6</t>
+          <t>-2,48; 0,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,73; -2,7</t>
+          <t>-6,8; -2,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 0,56</t>
+          <t>-3,34; 0,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,25; -1,53</t>
+          <t>-6,46; -1,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,2; 30,87</t>
+          <t>-72,63; 18,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,62; -42,85</t>
+          <t>-82,61; -40,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-56,02; 14,15</t>
+          <t>-57,28; 11,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-89,18; -31,67</t>
+          <t>-88,43; -32,09</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 0,14</t>
+          <t>-3,92; 0,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 0,45</t>
+          <t>-7,56; 0,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 1,36</t>
+          <t>-5,9; 1,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 1,19</t>
+          <t>-6,23; 0,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-90,95; 41,17</t>
+          <t>-90,88; 35,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-74,15; 49,17</t>
+          <t>-79,73; 30,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-75,72; 33,16</t>
+          <t>-76,62; 25,67</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,36; -0,07</t>
+          <t>-2,3; -0,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,16; -3,13</t>
+          <t>-6,11; -3,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,48; -0,46</t>
+          <t>-3,35; -0,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,96; -2,23</t>
+          <t>-6,04; -2,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,69; 0,61</t>
+          <t>-73,02; 2,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-81,58; -49,51</t>
+          <t>-80,29; -49,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-57,5; -8,84</t>
+          <t>-57,07; -11,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-81,69; -39,12</t>
+          <t>-82,96; -39,36</t>
         </is>
       </c>
     </row>
